--- a/Documentation/SkillMatrix_GroupA.xlsx
+++ b/Documentation/SkillMatrix_GroupA.xlsx
@@ -1,14 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timot\OneDrive\Flinders\IT Project\COMP3782Hardware\Documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_1CEA94655C3777A04D6A8A4202596EE03666CEEF" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{0F322B3D-9EA0-475C-92DF-376868D61D3C}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -169,54 +178,57 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="10">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font/>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <i/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -225,7 +237,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -277,19 +289,28 @@
     </fill>
   </fills>
   <borders count="14">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF808080"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF808080"/>
       </top>
       <bottom style="thin">
         <color rgb="FF808080"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF808080"/>
       </right>
@@ -299,17 +320,23 @@
       <bottom style="thin">
         <color rgb="FF808080"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF808080"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -324,6 +351,7 @@
       <bottom style="thin">
         <color rgb="FF808080"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -336,6 +364,7 @@
       <bottom style="thin">
         <color rgb="FF808080"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -350,27 +379,34 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -380,6 +416,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -391,14 +428,19 @@
       <top style="thin">
         <color rgb="FF808080"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF808080"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF808080"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -410,932 +452,1290 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="35">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="5" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="7" fillId="6" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="8" fillId="7" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="8" fillId="8" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="4" fillId="9" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{8950386B-82C0-46B3-BB06-A7DC76E4C71A}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AG1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="33.43"/>
-    <col customWidth="1" min="3" max="3" width="15.57"/>
-    <col customWidth="1" min="4" max="4" width="16.86"/>
-    <col customWidth="1" min="5" max="5" width="10.0"/>
-    <col customWidth="1" min="6" max="6" width="10.71"/>
-    <col customWidth="1" min="7" max="7" width="10.0"/>
-    <col customWidth="1" min="8" max="8" width="10.57"/>
-    <col customWidth="1" min="9" max="9" width="9.14"/>
-    <col customWidth="1" min="10" max="10" width="12.86"/>
-    <col customWidth="1" min="11" max="11" width="13.71"/>
-    <col customWidth="1" min="12" max="12" width="12.14"/>
-    <col customWidth="1" min="13" max="13" width="11.43"/>
-    <col customWidth="1" min="14" max="15" width="8.57"/>
-    <col customWidth="1" min="16" max="16" width="11.0"/>
-    <col customWidth="1" min="17" max="18" width="8.57"/>
-    <col customWidth="1" min="19" max="19" width="12.0"/>
-    <col customWidth="1" min="20" max="20" width="8.57"/>
-    <col customWidth="1" min="21" max="21" width="10.0"/>
-    <col customWidth="1" min="22" max="22" width="10.71"/>
-    <col customWidth="1" min="23" max="24" width="10.14"/>
-    <col customWidth="1" min="25" max="25" width="10.57"/>
-    <col customWidth="1" min="26" max="26" width="15.71"/>
-    <col customWidth="1" min="27" max="30" width="8.57"/>
-    <col customWidth="1" min="31" max="31" width="10.86"/>
-    <col customWidth="1" min="32" max="32" width="11.29"/>
-    <col customWidth="1" min="33" max="33" width="8.57"/>
+    <col min="1" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" customWidth="1"/>
+    <col min="14" max="15" width="8.5703125" customWidth="1"/>
+    <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="17" max="18" width="8.5703125" customWidth="1"/>
+    <col min="19" max="19" width="12" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" customWidth="1"/>
+    <col min="21" max="21" width="10" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" customWidth="1"/>
+    <col min="23" max="24" width="10.140625" customWidth="1"/>
+    <col min="25" max="25" width="10.5703125" customWidth="1"/>
+    <col min="26" max="26" width="15.7109375" customWidth="1"/>
+    <col min="27" max="30" width="8.5703125" customWidth="1"/>
+    <col min="31" max="31" width="10.85546875" customWidth="1"/>
+    <col min="32" max="32" width="11.28515625" customWidth="1"/>
+    <col min="33" max="33" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30.0" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:33" ht="30" customHeight="1">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
     </row>
-    <row r="3" ht="84.0" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
+    <row r="3" spans="1:33" ht="84" customHeight="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="U3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="V3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="W3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X3" s="6" t="s">
+      <c r="X3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y3" s="5" t="s">
+      <c r="Y3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z3" s="6" t="s">
+      <c r="Z3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA3" s="5" t="s">
+      <c r="AA3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB3" s="6" t="s">
+      <c r="AB3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC3" s="5" t="s">
+      <c r="AC3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD3" s="6" t="s">
+      <c r="AD3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE3" s="5" t="s">
+      <c r="AE3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF3" s="6" t="s">
+      <c r="AF3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG3" s="7"/>
+      <c r="AG3" s="4"/>
     </row>
-    <row r="4">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:33">
+      <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="11" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="14" t="s">
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="15" t="s">
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="16" t="s">
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="17" t="s">
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="18"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="10"/>
     </row>
-    <row r="5" ht="54.0" customHeight="1">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:33" ht="54" customHeight="1">
+      <c r="A5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="21">
-        <v>4.0</v>
-      </c>
-      <c r="D5" s="21">
-        <v>7.0</v>
-      </c>
-      <c r="E5" s="21">
-        <v>7.0</v>
-      </c>
-      <c r="F5" s="21">
-        <v>7.0</v>
-      </c>
-      <c r="G5" s="21">
-        <v>7.0</v>
-      </c>
-      <c r="H5" s="21">
-        <v>5.0</v>
-      </c>
-      <c r="I5" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="J5" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K5" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="L5" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="M5" s="21">
-        <v>4.0</v>
-      </c>
-      <c r="N5" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="O5" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="P5" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="Q5" s="21">
-        <v>8.0</v>
-      </c>
-      <c r="R5" s="21">
-        <v>8.0</v>
-      </c>
-      <c r="S5" s="21">
-        <v>5.0</v>
-      </c>
-      <c r="T5" s="21">
-        <v>8.0</v>
-      </c>
-      <c r="U5" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="V5" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="W5" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="X5" s="21">
-        <v>6.0</v>
-      </c>
-      <c r="Y5" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="Z5" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="AA5" s="21">
-        <v>9.0</v>
-      </c>
-      <c r="AB5" s="21">
-        <v>7.0</v>
-      </c>
-      <c r="AC5" s="21">
-        <v>9.0</v>
-      </c>
-      <c r="AD5" s="21">
-        <v>4.0</v>
-      </c>
-      <c r="AE5" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="AF5" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="AG5" s="18"/>
+      <c r="C5" s="13">
+        <v>4</v>
+      </c>
+      <c r="D5" s="13">
+        <v>7</v>
+      </c>
+      <c r="E5" s="13">
+        <v>7</v>
+      </c>
+      <c r="F5" s="13">
+        <v>7</v>
+      </c>
+      <c r="G5" s="13">
+        <v>7</v>
+      </c>
+      <c r="H5" s="13">
+        <v>5</v>
+      </c>
+      <c r="I5" s="13">
+        <v>3</v>
+      </c>
+      <c r="J5" s="13">
+        <v>0</v>
+      </c>
+      <c r="K5" s="13">
+        <v>3</v>
+      </c>
+      <c r="L5" s="13">
+        <v>0</v>
+      </c>
+      <c r="M5" s="13">
+        <v>4</v>
+      </c>
+      <c r="N5" s="13">
+        <v>0</v>
+      </c>
+      <c r="O5" s="13">
+        <v>0</v>
+      </c>
+      <c r="P5" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>8</v>
+      </c>
+      <c r="R5" s="13">
+        <v>8</v>
+      </c>
+      <c r="S5" s="13">
+        <v>5</v>
+      </c>
+      <c r="T5" s="13">
+        <v>8</v>
+      </c>
+      <c r="U5" s="13">
+        <v>3</v>
+      </c>
+      <c r="V5" s="13">
+        <v>3</v>
+      </c>
+      <c r="W5" s="13">
+        <v>3</v>
+      </c>
+      <c r="X5" s="13">
+        <v>6</v>
+      </c>
+      <c r="Y5" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="13">
+        <v>9</v>
+      </c>
+      <c r="AB5" s="13">
+        <v>7</v>
+      </c>
+      <c r="AC5" s="13">
+        <v>9</v>
+      </c>
+      <c r="AD5" s="13">
+        <v>4</v>
+      </c>
+      <c r="AE5" s="7">
+        <v>4</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>4</v>
+      </c>
+      <c r="AG5" s="10"/>
     </row>
-    <row r="6" ht="54.0" customHeight="1">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:33" ht="54" customHeight="1">
+      <c r="A6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="21">
-        <v>6.0</v>
-      </c>
-      <c r="D6" s="21">
-        <v>7.0</v>
-      </c>
-      <c r="E6" s="21">
-        <v>7.0</v>
-      </c>
-      <c r="F6" s="21">
-        <v>8.0</v>
-      </c>
-      <c r="G6" s="21">
-        <v>8.0</v>
-      </c>
-      <c r="H6" s="21">
-        <v>4.0</v>
-      </c>
-      <c r="I6" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="J6" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="K6" s="21">
-        <v>8.0</v>
-      </c>
-      <c r="L6" s="21">
-        <v>7.0</v>
-      </c>
-      <c r="M6" s="21">
-        <v>9.0</v>
-      </c>
-      <c r="N6" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="O6" s="21">
-        <v>4.0</v>
-      </c>
-      <c r="P6" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="Q6" s="21">
-        <v>9.0</v>
-      </c>
-      <c r="R6" s="21">
-        <v>9.0</v>
-      </c>
-      <c r="S6" s="21">
-        <v>9.0</v>
-      </c>
-      <c r="T6" s="21">
-        <v>9.0</v>
-      </c>
-      <c r="U6" s="21">
-        <v>8.0</v>
-      </c>
-      <c r="V6" s="21">
-        <v>9.0</v>
-      </c>
-      <c r="W6" s="21">
-        <v>9.0</v>
-      </c>
-      <c r="X6" s="21">
-        <v>6.0</v>
-      </c>
-      <c r="Y6" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="Z6" s="21">
-        <v>9.0</v>
-      </c>
-      <c r="AA6" s="21">
-        <v>5.0</v>
-      </c>
-      <c r="AB6" s="21">
-        <v>8.0</v>
-      </c>
-      <c r="AC6" s="21">
-        <v>9.0</v>
-      </c>
-      <c r="AD6" s="21">
-        <v>2.0</v>
-      </c>
-      <c r="AE6" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="AF6" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="AG6" s="18"/>
+      <c r="C6" s="13">
+        <v>6</v>
+      </c>
+      <c r="D6" s="13">
+        <v>7</v>
+      </c>
+      <c r="E6" s="13">
+        <v>7</v>
+      </c>
+      <c r="F6" s="13">
+        <v>8</v>
+      </c>
+      <c r="G6" s="13">
+        <v>8</v>
+      </c>
+      <c r="H6" s="13">
+        <v>4</v>
+      </c>
+      <c r="I6" s="13">
+        <v>3</v>
+      </c>
+      <c r="J6" s="13">
+        <v>3</v>
+      </c>
+      <c r="K6" s="13">
+        <v>8</v>
+      </c>
+      <c r="L6" s="13">
+        <v>7</v>
+      </c>
+      <c r="M6" s="13">
+        <v>9</v>
+      </c>
+      <c r="N6" s="13">
+        <v>1</v>
+      </c>
+      <c r="O6" s="13">
+        <v>4</v>
+      </c>
+      <c r="P6" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>9</v>
+      </c>
+      <c r="R6" s="13">
+        <v>9</v>
+      </c>
+      <c r="S6" s="13">
+        <v>9</v>
+      </c>
+      <c r="T6" s="13">
+        <v>9</v>
+      </c>
+      <c r="U6" s="13">
+        <v>8</v>
+      </c>
+      <c r="V6" s="13">
+        <v>9</v>
+      </c>
+      <c r="W6" s="13">
+        <v>9</v>
+      </c>
+      <c r="X6" s="13">
+        <v>6</v>
+      </c>
+      <c r="Y6" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="13">
+        <v>9</v>
+      </c>
+      <c r="AA6" s="13">
+        <v>5</v>
+      </c>
+      <c r="AB6" s="13">
+        <v>8</v>
+      </c>
+      <c r="AC6" s="13">
+        <v>9</v>
+      </c>
+      <c r="AD6" s="13">
+        <v>2</v>
+      </c>
+      <c r="AE6" s="7">
+        <v>8</v>
+      </c>
+      <c r="AF6" s="7">
+        <v>3</v>
+      </c>
+      <c r="AG6" s="10"/>
     </row>
-    <row r="7" ht="54.0" customHeight="1">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:33" ht="54" customHeight="1">
+      <c r="A7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="24">
-        <v>8.0</v>
-      </c>
-      <c r="D7" s="24">
-        <v>9.0</v>
-      </c>
-      <c r="E7" s="24">
-        <v>8.0</v>
-      </c>
-      <c r="F7" s="24">
-        <v>5.0</v>
-      </c>
-      <c r="G7" s="24">
-        <v>6.0</v>
-      </c>
-      <c r="H7" s="24">
-        <v>6.0</v>
-      </c>
-      <c r="I7" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="J7" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="K7" s="24">
-        <v>8.0</v>
-      </c>
-      <c r="L7" s="24">
-        <v>7.0</v>
-      </c>
-      <c r="M7" s="24">
-        <v>6.0</v>
-      </c>
-      <c r="N7" s="24">
-        <v>5.0</v>
-      </c>
-      <c r="O7" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="P7" s="24">
-        <v>5.0</v>
-      </c>
-      <c r="Q7" s="24">
-        <v>7.0</v>
-      </c>
-      <c r="R7" s="24">
-        <v>7.0</v>
-      </c>
-      <c r="S7" s="24">
-        <v>7.0</v>
-      </c>
-      <c r="T7" s="24">
-        <v>7.0</v>
-      </c>
-      <c r="U7" s="24">
-        <v>7.0</v>
-      </c>
-      <c r="V7" s="24">
-        <v>7.0</v>
-      </c>
-      <c r="W7" s="24">
-        <v>7.0</v>
-      </c>
-      <c r="X7" s="24">
-        <v>7.0</v>
-      </c>
-      <c r="Y7" s="24">
-        <v>7.0</v>
-      </c>
-      <c r="Z7" s="24">
-        <v>10.0</v>
-      </c>
-      <c r="AA7" s="24">
-        <v>5.0</v>
-      </c>
-      <c r="AB7" s="24">
-        <v>8.0</v>
-      </c>
-      <c r="AC7" s="24">
-        <v>9.0</v>
-      </c>
-      <c r="AD7" s="24">
-        <v>5.0</v>
-      </c>
-      <c r="AE7" s="25">
-        <v>3.0</v>
-      </c>
-      <c r="AF7" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="AG7" s="18"/>
+      <c r="C7" s="16">
+        <v>8</v>
+      </c>
+      <c r="D7" s="16">
+        <v>9</v>
+      </c>
+      <c r="E7" s="16">
+        <v>8</v>
+      </c>
+      <c r="F7" s="16">
+        <v>5</v>
+      </c>
+      <c r="G7" s="16">
+        <v>6</v>
+      </c>
+      <c r="H7" s="16">
+        <v>6</v>
+      </c>
+      <c r="I7" s="16">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0</v>
+      </c>
+      <c r="K7" s="16">
+        <v>8</v>
+      </c>
+      <c r="L7" s="16">
+        <v>7</v>
+      </c>
+      <c r="M7" s="16">
+        <v>6</v>
+      </c>
+      <c r="N7" s="16">
+        <v>5</v>
+      </c>
+      <c r="O7" s="16">
+        <v>0</v>
+      </c>
+      <c r="P7" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>7</v>
+      </c>
+      <c r="R7" s="16">
+        <v>7</v>
+      </c>
+      <c r="S7" s="16">
+        <v>7</v>
+      </c>
+      <c r="T7" s="16">
+        <v>7</v>
+      </c>
+      <c r="U7" s="16">
+        <v>7</v>
+      </c>
+      <c r="V7" s="16">
+        <v>7</v>
+      </c>
+      <c r="W7" s="16">
+        <v>7</v>
+      </c>
+      <c r="X7" s="16">
+        <v>7</v>
+      </c>
+      <c r="Y7" s="16">
+        <v>7</v>
+      </c>
+      <c r="Z7" s="16">
+        <v>10</v>
+      </c>
+      <c r="AA7" s="16">
+        <v>5</v>
+      </c>
+      <c r="AB7" s="16">
+        <v>8</v>
+      </c>
+      <c r="AC7" s="16">
+        <v>9</v>
+      </c>
+      <c r="AD7" s="16">
+        <v>5</v>
+      </c>
+      <c r="AE7" s="17">
+        <v>3</v>
+      </c>
+      <c r="AF7" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="10"/>
     </row>
-    <row r="8" ht="54.0" customHeight="1">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:33" ht="54" customHeight="1">
+      <c r="A8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="27">
-        <v>6.0</v>
-      </c>
-      <c r="D8" s="27">
-        <v>3.0</v>
-      </c>
-      <c r="E8" s="27">
-        <v>5.0</v>
-      </c>
-      <c r="F8" s="27">
-        <v>4.0</v>
-      </c>
-      <c r="G8" s="27">
-        <v>6.0</v>
-      </c>
-      <c r="H8" s="27">
-        <v>6.0</v>
-      </c>
-      <c r="I8" s="27">
-        <v>4.0</v>
-      </c>
-      <c r="J8" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K8" s="27">
-        <v>7.0</v>
-      </c>
-      <c r="L8" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="M8" s="27">
-        <v>3.0</v>
-      </c>
-      <c r="N8" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="O8" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="P8" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="Q8" s="27">
-        <v>7.0</v>
-      </c>
-      <c r="R8" s="27">
-        <v>6.0</v>
-      </c>
-      <c r="S8" s="27">
-        <v>5.0</v>
-      </c>
-      <c r="T8" s="27">
-        <v>6.0</v>
-      </c>
-      <c r="U8" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="V8" s="27">
-        <v>7.0</v>
-      </c>
-      <c r="W8" s="27">
-        <v>5.0</v>
-      </c>
-      <c r="X8" s="27">
-        <v>9.0</v>
-      </c>
-      <c r="Y8" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="Z8" s="27">
-        <v>6.0</v>
-      </c>
-      <c r="AA8" s="27">
-        <v>6.0</v>
-      </c>
-      <c r="AB8" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="AC8" s="27">
-        <v>5.0</v>
-      </c>
-      <c r="AD8" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="AE8" s="27">
-        <v>6.0</v>
-      </c>
-      <c r="AF8" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="AG8" s="18"/>
+      <c r="C8" s="19">
+        <v>6</v>
+      </c>
+      <c r="D8" s="19">
+        <v>3</v>
+      </c>
+      <c r="E8" s="19">
+        <v>5</v>
+      </c>
+      <c r="F8" s="19">
+        <v>4</v>
+      </c>
+      <c r="G8" s="19">
+        <v>6</v>
+      </c>
+      <c r="H8" s="19">
+        <v>6</v>
+      </c>
+      <c r="I8" s="19">
+        <v>4</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0</v>
+      </c>
+      <c r="K8" s="19">
+        <v>7</v>
+      </c>
+      <c r="L8" s="13">
+        <v>0</v>
+      </c>
+      <c r="M8" s="19">
+        <v>3</v>
+      </c>
+      <c r="N8" s="13">
+        <v>0</v>
+      </c>
+      <c r="O8" s="19">
+        <v>2</v>
+      </c>
+      <c r="P8" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>7</v>
+      </c>
+      <c r="R8" s="19">
+        <v>6</v>
+      </c>
+      <c r="S8" s="19">
+        <v>5</v>
+      </c>
+      <c r="T8" s="19">
+        <v>6</v>
+      </c>
+      <c r="U8" s="13">
+        <v>0</v>
+      </c>
+      <c r="V8" s="19">
+        <v>7</v>
+      </c>
+      <c r="W8" s="19">
+        <v>5</v>
+      </c>
+      <c r="X8" s="19">
+        <v>9</v>
+      </c>
+      <c r="Y8" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="19">
+        <v>6</v>
+      </c>
+      <c r="AA8" s="19">
+        <v>6</v>
+      </c>
+      <c r="AB8" s="19">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="19">
+        <v>5</v>
+      </c>
+      <c r="AD8" s="19">
+        <v>2</v>
+      </c>
+      <c r="AE8" s="19">
+        <v>6</v>
+      </c>
+      <c r="AF8" s="18">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="10"/>
     </row>
-    <row r="9" ht="54.0" customHeight="1">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:33" ht="54" customHeight="1">
+      <c r="A9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="27">
-        <v>4.0</v>
-      </c>
-      <c r="D9" s="27">
-        <v>5.0</v>
-      </c>
-      <c r="E9" s="27">
-        <v>5.0</v>
-      </c>
-      <c r="F9" s="28">
-        <v>5.0</v>
-      </c>
-      <c r="G9" s="27">
-        <v>8.0</v>
-      </c>
-      <c r="H9" s="27">
-        <v>5.0</v>
-      </c>
-      <c r="I9" s="27">
-        <v>5.0</v>
-      </c>
-      <c r="J9" s="27">
-        <v>5.0</v>
-      </c>
-      <c r="K9" s="27">
-        <v>5.0</v>
-      </c>
-      <c r="L9" s="27">
-        <v>6.0</v>
-      </c>
-      <c r="M9" s="27">
-        <v>6.0</v>
-      </c>
-      <c r="N9" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="O9" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="P9" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="Q9" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="R9" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="S9" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="T9" s="27">
-        <v>3.0</v>
-      </c>
-      <c r="U9" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="V9" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="W9" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="X9" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="Y9" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="Z9" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="AA9" s="27">
-        <v>5.0</v>
-      </c>
-      <c r="AB9" s="27">
-        <v>3.0</v>
-      </c>
-      <c r="AC9" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="AD9" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="AE9" s="27">
-        <v>5.0</v>
-      </c>
-      <c r="AF9" s="27">
-        <v>5.0</v>
-      </c>
-      <c r="AG9" s="18"/>
+      <c r="C9" s="19">
+        <v>4</v>
+      </c>
+      <c r="D9" s="19">
+        <v>5</v>
+      </c>
+      <c r="E9" s="19">
+        <v>5</v>
+      </c>
+      <c r="F9" s="20">
+        <v>5</v>
+      </c>
+      <c r="G9" s="19">
+        <v>8</v>
+      </c>
+      <c r="H9" s="19">
+        <v>5</v>
+      </c>
+      <c r="I9" s="19">
+        <v>5</v>
+      </c>
+      <c r="J9" s="19">
+        <v>5</v>
+      </c>
+      <c r="K9" s="19">
+        <v>5</v>
+      </c>
+      <c r="L9" s="19">
+        <v>6</v>
+      </c>
+      <c r="M9" s="19">
+        <v>6</v>
+      </c>
+      <c r="N9" s="19">
+        <v>0</v>
+      </c>
+      <c r="O9" s="19">
+        <v>1</v>
+      </c>
+      <c r="P9" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="19">
+        <v>1</v>
+      </c>
+      <c r="R9" s="19">
+        <v>1</v>
+      </c>
+      <c r="S9" s="19">
+        <v>1</v>
+      </c>
+      <c r="T9" s="19">
+        <v>3</v>
+      </c>
+      <c r="U9" s="19">
+        <v>1</v>
+      </c>
+      <c r="V9" s="19">
+        <v>1</v>
+      </c>
+      <c r="W9" s="19">
+        <v>1</v>
+      </c>
+      <c r="X9" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="19">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="19">
+        <v>3</v>
+      </c>
+      <c r="AC9" s="19">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="19">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="19">
+        <v>5</v>
+      </c>
+      <c r="AF9" s="19">
+        <v>5</v>
+      </c>
+      <c r="AG9" s="10"/>
     </row>
-    <row r="10" ht="47.25" customHeight="1"/>
-    <row r="11">
+    <row r="10" spans="1:33" ht="47.25" customHeight="1"/>
+    <row r="11" spans="1:33">
       <c r="A11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
+    <row r="14" spans="1:33">
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="31"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
+    <row r="15" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A15" s="23"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="31"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
+    <row r="16" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A16" s="23"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="31"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
+    <row r="17" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A17" s="23"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="31"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="31"/>
-      <c r="S18" s="30"/>
+    <row r="18" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A18" s="23"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="23"/>
+      <c r="S18" s="22"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="B20" s="32"/>
+    <row r="19" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="20" spans="1:19" ht="15.75" customHeight="1">
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
+    <row r="21" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A21" s="21"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="22" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:19" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:19" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -2313,24 +2713,20 @@
     <mergeCell ref="AA4:AD4"/>
     <mergeCell ref="AE4:AF4"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A21:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="8.57"/>
+    <col min="1" max="6" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -3314,24 +3710,20 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A21:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="8.57"/>
+    <col min="1" max="6" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -4315,9 +4707,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentation/SkillMatrix_GroupA.xlsx
+++ b/Documentation/SkillMatrix_GroupA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timot\OneDrive\Flinders\IT Project\COMP3782Hardware\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_1CEA94655C3777A04D6A8A4202596EE03666CEEF" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{0F322B3D-9EA0-475C-92DF-376868D61D3C}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_1CEA94655C3777A04D6A8A4202596EE03666CEEF" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{BA2FAA31-E3A5-436E-AF83-C0345DF22A10}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,14 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
-  <si>
-    <t>Skills Matrix student team</t>
-  </si>
-  <si>
-    <t>Please fill in this matrix for your team. It will help your team to know the skills you have to work with and assist your client in finalising project tasks. 
-If you have other skills to add or notes, please add to the bottom in free text.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Requirements collection &amp; analysis</t>
   </si>
@@ -172,7 +165,7 @@
     <t>Proios</t>
   </si>
   <si>
-    <t>** List tools (eg Illustrator, Photoshop)</t>
+    <t>Skills Matrix BCI Project team</t>
   </si>
 </sst>
 </file>
@@ -870,7 +863,7 @@
   <dimension ref="A1:AG1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -905,12 +898,10 @@
   <sheetData>
     <row r="1" spans="1:33" ht="30" customHeight="1">
       <c r="A1" s="27" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="B1" s="28"/>
-      <c r="C1" s="29" t="s">
-        <v>1</v>
-      </c>
+      <c r="C1" s="29"/>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
@@ -946,103 +937,103 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AF3" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="AG3" s="4"/>
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -1059,39 +1050,39 @@
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R4" s="31"/>
       <c r="S4" s="31"/>
       <c r="T4" s="32"/>
       <c r="U4" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
       <c r="Y4" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Z4" s="9"/>
       <c r="AA4" s="33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB4" s="31"/>
       <c r="AC4" s="31"/>
       <c r="AD4" s="32"/>
       <c r="AE4" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF4" s="32"/>
       <c r="AG4" s="10"/>
     </row>
     <row r="5" spans="1:33" ht="54" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" s="13">
         <v>4</v>
@@ -1187,10 +1178,10 @@
     </row>
     <row r="6" spans="1:33" ht="54" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="13">
         <v>6</v>
@@ -1286,10 +1277,10 @@
     </row>
     <row r="7" spans="1:33" ht="54" customHeight="1">
       <c r="A7" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" s="16">
         <v>8</v>
@@ -1385,10 +1376,10 @@
     </row>
     <row r="8" spans="1:33" ht="54" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" s="19">
         <v>6</v>
@@ -1484,10 +1475,10 @@
     </row>
     <row r="9" spans="1:33" ht="54" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" s="19">
         <v>4</v>
@@ -1582,11 +1573,6 @@
       <c r="AG9" s="10"/>
     </row>
     <row r="10" spans="1:33" ht="47.25" customHeight="1"/>
-    <row r="11" spans="1:33">
-      <c r="A11" t="s">
-        <v>49</v>
-      </c>
-    </row>
     <row r="14" spans="1:33">
       <c r="A14" s="21"/>
       <c r="B14" s="22"/>
